--- a/Ước lượng dự án.xlsx
+++ b/Ước lượng dự án.xlsx
@@ -468,15 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -514,9 +505,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -542,19 +530,31 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,84 +880,84 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="23" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="41">
+      <c r="C9" s="6"/>
+      <c r="D9" s="36">
         <v>522</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -985,599 +985,573 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="39"/>
+      <c r="C2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="21">
+      <c r="B4" s="39"/>
+      <c r="C4" s="18">
         <v>44088</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>44150</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="15">
         <v>1</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="39">
+      <c r="D7" s="5"/>
+      <c r="E7" s="34">
         <v>10</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>15</v>
       </c>
-      <c r="G7" s="1">
-        <f>SUM(E9:E20)</f>
-        <v>360</v>
-      </c>
-      <c r="H7" s="1">
-        <f>SUM(F9:F20)</f>
-        <v>458</v>
-      </c>
-      <c r="I7" s="1">
-        <f>G7-H7</f>
-        <v>-98</v>
-      </c>
     </row>
     <row r="8" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>2</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="39">
+      <c r="D8" s="5"/>
+      <c r="E8" s="34">
         <v>8</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="11">
         <v>8</v>
       </c>
-      <c r="G8" s="1">
-        <v>360</v>
-      </c>
-      <c r="H8" s="26">
-        <v>458</v>
-      </c>
-      <c r="I8" s="26">
-        <v>98</v>
-      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>3</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="39">
+      <c r="D9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="34">
         <v>59</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="11">
         <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="15">
         <v>4</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="39">
+      <c r="D10" s="5"/>
+      <c r="E10" s="34">
         <v>3</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="15">
         <v>5</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="39">
+      <c r="D11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="34">
         <v>44</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18">
+      <c r="A12" s="15">
         <v>6</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="39">
+      <c r="D12" s="5"/>
+      <c r="E12" s="34">
         <v>8</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="11">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="15">
         <v>7</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="39">
+      <c r="D13" s="5"/>
+      <c r="E13" s="34">
         <v>3</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
+      <c r="A14" s="15">
         <v>8</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="39">
+      <c r="D14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="34">
         <v>54</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="11">
         <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="15">
         <v>9</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="39">
+      <c r="D15" s="5"/>
+      <c r="E15" s="34">
         <v>3</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="18">
+      <c r="A16" s="15">
         <v>10</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="39">
+      <c r="D16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="34">
         <v>59</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="11">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+    <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
         <v>11</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="39">
+      <c r="D17" s="5"/>
+      <c r="E17" s="34">
         <v>3</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="15">
         <v>12</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="39">
+      <c r="D18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="34">
         <v>118</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="11">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+    <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
         <v>13</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="39">
+      <c r="D19" s="5"/>
+      <c r="E19" s="34">
         <v>3</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="11">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+    <row r="20" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="15">
         <v>14</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="39">
+      <c r="D20" s="5"/>
+      <c r="E20" s="34">
         <v>3</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="15">
         <v>15</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="39">
+      <c r="D21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="34">
         <v>20</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
         <v>16</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="39">
+      <c r="D22" s="5"/>
+      <c r="E22" s="34">
         <v>4</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="15">
         <v>17</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="39">
+      <c r="D23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="34">
         <v>20</v>
       </c>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="18">
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="15">
         <v>18</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="39">
+      <c r="D24" s="5"/>
+      <c r="E24" s="34">
         <v>4</v>
       </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="15">
         <v>19</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="39">
+      <c r="D25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="34">
         <v>20</v>
       </c>
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="15">
         <v>20</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="8"/>
-      <c r="E26" s="39">
+      <c r="D26" s="5"/>
+      <c r="E26" s="34">
         <v>4</v>
       </c>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="15">
         <v>21</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="39">
+      <c r="D27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="34">
         <v>20</v>
       </c>
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="15">
         <v>22</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="39">
+      <c r="D28" s="5"/>
+      <c r="E28" s="34">
         <v>4</v>
       </c>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
         <v>23</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="39">
+      <c r="D29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="34">
         <v>20</v>
       </c>
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="18">
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="15">
         <v>24</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="39">
+      <c r="D30" s="5"/>
+      <c r="E30" s="34">
         <v>4</v>
       </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
-        <v>25</v>
-      </c>
-      <c r="B31" s="14" t="s">
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
+        <v>25</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="39">
+      <c r="D31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="34">
         <v>20</v>
       </c>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="18">
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
         <v>26</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="39">
+      <c r="D32" s="5"/>
+      <c r="E32" s="34">
         <v>4</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="1">
-        <f>SUM(E21:E32)</f>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="39">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="34">
         <f>SUM(E7:E32)</f>
         <v>522</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="11">
         <f>SUM(F7:F32)</f>
         <v>481</v>
-      </c>
-      <c r="G33" s="1">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1596,7 +1570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1611,536 +1585,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>44088</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>44150</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="32"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="29">
         <v>1</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="35">
+      <c r="C7" s="16"/>
+      <c r="D7" s="31">
         <v>44079</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="31">
         <v>44087</v>
       </c>
-      <c r="F7" s="32"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18">
+      <c r="A8" s="15">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="15">
         <v>1.2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>2</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="35">
+      <c r="C10" s="16"/>
+      <c r="D10" s="31">
         <v>44089</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="31">
         <v>44108</v>
       </c>
-      <c r="F10" s="32"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
+      <c r="C11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
+      <c r="C13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
+      <c r="C16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="9"/>
+      <c r="C18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="A23" s="29">
         <v>3</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="35">
+      <c r="C23" s="16"/>
+      <c r="D23" s="31">
         <v>44109</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="31">
         <v>44122</v>
       </c>
-      <c r="F23" s="32"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="9"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="9"/>
+      <c r="C26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="9"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="33">
+      <c r="A28" s="29">
         <v>4</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="35">
+      <c r="C28" s="16"/>
+      <c r="D28" s="31">
         <v>44123</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="31">
         <v>44129</v>
       </c>
-      <c r="F28" s="32"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="9"/>
+      <c r="C29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="9"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="33">
+      <c r="A31" s="29">
         <v>5</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="35">
+      <c r="C31" s="16"/>
+      <c r="D31" s="31">
         <v>44130</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="31">
         <v>44136</v>
       </c>
-      <c r="F31" s="32"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="9"/>
+      <c r="C32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="9"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="33">
+      <c r="A34" s="29">
         <v>6</v>
       </c>
-      <c r="B34" s="34" t="s">
+      <c r="B34" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="35">
+      <c r="C34" s="16"/>
+      <c r="D34" s="31">
         <v>44137</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="31">
         <v>44143</v>
       </c>
-      <c r="F34" s="32"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="9"/>
+      <c r="C35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="9"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="33">
+      <c r="A37" s="29">
         <v>7</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="19"/>
-      <c r="D37" s="35">
+      <c r="C37" s="16"/>
+      <c r="D37" s="31">
         <v>44144</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="31">
         <v>44150</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="28"/>
     </row>
     <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="9"/>
+      <c r="C38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="8"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="9"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
@@ -2148,9 +2122,9 @@
       </c>
       <c r="B40" s="43"/>
       <c r="C40" s="44"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
